--- a/其他/工作中可能有用的一些网址.xlsx
+++ b/其他/工作中可能有用的一些网址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" tabRatio="570"/>
+    <workbookView windowWidth="19890" windowHeight="7515" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>http://www.mamicode.com/info-detail-2268171.html</t>
+  </si>
+  <si>
+    <t>php_peng_huai@163.com</t>
+  </si>
+  <si>
+    <t>ph123456.</t>
   </si>
   <si>
     <t>测试服务器</t>
@@ -482,12 +488,6 @@
 </t>
   </si>
   <si>
-    <t>php_peng_huai@163.com</t>
-  </si>
-  <si>
-    <t>ph123456.</t>
-  </si>
-  <si>
     <t>账号</t>
   </si>
   <si>
@@ -590,9 +590,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1921,10 +1921,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" customHeight="1"/>
@@ -2300,6 +2300,16 @@
       </c>
       <c r="B39" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:2">
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:2">
+      <c r="B41" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2357,47 +2367,47 @@
   <sheetData>
     <row r="1" ht="13.5" spans="1:5">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:13">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="13.5" spans="1:3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>123456</v>
@@ -2405,34 +2415,34 @@
     </row>
     <row r="4" ht="13.5" spans="1:2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="1:2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="1:2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="1:2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="2:2">
@@ -2443,64 +2453,64 @@
     </row>
     <row r="10" ht="13.5" spans="1:5">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="1:4">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" ht="13.5" spans="2:2">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" ht="270" spans="1:2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2535,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2537,10 +2547,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>29</v>
@@ -2548,36 +2558,36 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="59.25" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="337.5" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2606,7 @@
   <sheetPr/>
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
@@ -2608,7 +2618,7 @@
   <sheetData>
     <row r="1" ht="13.5" spans="1:4">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>139</v>
@@ -2730,7 +2740,7 @@
     </row>
     <row r="200" customHeight="1" spans="1:2">
       <c r="A200" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>153</v>

--- a/其他/工作中可能有用的一些网址.xlsx
+++ b/其他/工作中可能有用的一些网址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515" tabRatio="570"/>
+    <workbookView windowWidth="21000" windowHeight="11595" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -590,9 +590,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -685,36 +685,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -732,15 +702,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -754,6 +725,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -761,7 +739,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -774,6 +767,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -790,6 +790,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -809,168 +971,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1064,17 +1064,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.49998"/>
@@ -1105,6 +1094,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1113,145 +1113,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1921,10 +1921,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" customHeight="1"/>
@@ -2310,6 +2310,11 @@
     <row r="41" customHeight="1" spans="2:2">
       <c r="B41" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:2">
+      <c r="B42">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/其他/工作中可能有用的一些网址.xlsx
+++ b/其他/工作中可能有用的一些网址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" tabRatio="570"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>内容简介</t>
   </si>
@@ -578,6 +578,12 @@
     <t>11.腾讯开放平台：账号：3141208665密码：felix851017</t>
   </si>
   <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>Thenewpassforrootis123456.</t>
+  </si>
+  <si>
     <t>翻墙</t>
   </si>
   <si>
@@ -589,10 +595,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -662,9 +668,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -685,9 +690,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -703,58 +767,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -762,14 +775,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -790,25 +796,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -820,73 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
+        <fgColor theme="7" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -898,79 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1008,17 +1014,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,45 +1030,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.49998"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,19 +1052,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.49998"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,16 +1131,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,112 +1152,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1923,7 +1929,7 @@
   <sheetPr/>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A418" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -2609,13 +2615,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="B121" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="22.2583333333333" customWidth="1"/>
@@ -2743,6 +2749,16 @@
         <v>167</v>
       </c>
     </row>
+    <row r="135" customHeight="1" spans="9:9">
+      <c r="I135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="4:4">
+      <c r="D140" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="200" customHeight="1" spans="1:2">
       <c r="A200" t="s">
         <v>97</v>
@@ -2753,10 +2769,10 @@
     </row>
     <row r="201" customHeight="1" spans="1:2">
       <c r="A201" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B201" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/其他/工作中可能有用的一些网址.xlsx
+++ b/其他/工作中可能有用的一些网址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="570" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="174">
   <si>
     <t>内容简介</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>ph123456.</t>
+  </si>
+  <si>
+    <t>vpn</t>
+  </si>
+  <si>
+    <t>ssr://MjAyLjE4Mi45Ny43OjI1NTY1OmF1dGhfc2hhMV92NDphZXMtMjU2LWNmYjpodHRwX3NpbXBsZTpjR2d4TWpNME5UWXUvPw</t>
   </si>
   <si>
     <t>测试服务器</t>
@@ -595,10 +601,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -668,13 +674,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -690,9 +689,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -708,28 +722,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -751,15 +743,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -773,6 +757,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -780,6 +779,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -796,109 +802,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39998"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39998"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -910,73 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1016,20 +1022,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,24 +1076,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.49998"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,23 +1088,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.49998"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,6 +1108,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1119,145 +1125,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1927,10 +1933,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" customHeight="1"/>
@@ -2309,7 +2315,7 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:2">
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2321,6 +2327,14 @@
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42">
         <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2352,6 +2366,7 @@
     <hyperlink ref="B2" r:id="rId26" display="http://idea.lanyus.com/"/>
     <hyperlink ref="B34" r:id="rId27" display="https://wiki.swoole.com/"/>
     <hyperlink ref="A34" r:id="rId28" display="PHP语言的异步多线程服务器，" tooltip="https://wiki.swoole.com/wiki/page/p-server.html"/>
+    <hyperlink ref="B40" r:id="rId29" display="php_peng_huai@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2378,47 +2393,47 @@
   <sheetData>
     <row r="1" ht="13.5" spans="1:5">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:13">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="13.5" spans="1:3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>123456</v>
@@ -2426,34 +2441,34 @@
     </row>
     <row r="4" ht="13.5" spans="1:2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="1:2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="1:2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="1:2">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="2:2">
@@ -2464,64 +2479,64 @@
     </row>
     <row r="10" ht="13.5" spans="1:5">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="1:4">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" ht="13.5" spans="2:2">
       <c r="B12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" ht="270" spans="1:2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2558,10 +2573,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>29</v>
@@ -2569,26 +2584,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" ht="59.25" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" ht="337.5" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -2617,8 +2632,8 @@
   <sheetPr/>
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B121" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView topLeftCell="B247" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127:C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2629,150 +2644,150 @@
   <sheetData>
     <row r="1" ht="13.5" spans="1:4">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:4">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:4">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="1:4">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="1:8">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="1:2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="2:2">
       <c r="B11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="13.5" spans="1:1">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" ht="13.5" spans="1:2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="1:2">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="9:9">
       <c r="I135" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="4:4">
       <c r="D140" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200" customHeight="1" spans="1:2">
       <c r="A200" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="1:2">
       <c r="A201" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B201" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
